--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Nlgn2-Nrxn2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Nlgn2-Nrxn2.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.986094666666667</v>
+        <v>0.9818413333333332</v>
       </c>
       <c r="H2">
-        <v>5.958284</v>
+        <v>2.945524</v>
       </c>
       <c r="I2">
-        <v>0.1054404613987739</v>
+        <v>0.0542081715590086</v>
       </c>
       <c r="J2">
-        <v>0.1054404613987739</v>
+        <v>0.05420817155900861</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.04996866666666666</v>
+        <v>0.003710666666666666</v>
       </c>
       <c r="N2">
-        <v>0.149906</v>
+        <v>0.011132</v>
       </c>
       <c r="O2">
-        <v>0.0233387165402913</v>
+        <v>0.001642024256586498</v>
       </c>
       <c r="P2">
-        <v>0.0233387165402913</v>
+        <v>0.001642024256586498</v>
       </c>
       <c r="Q2">
-        <v>0.0992425023671111</v>
+        <v>0.003643285907555555</v>
       </c>
       <c r="R2">
-        <v>0.8931825213039999</v>
+        <v>0.032789573168</v>
       </c>
       <c r="S2">
-        <v>0.002460845040463512</v>
+        <v>8.901113260509446E-05</v>
       </c>
       <c r="T2">
-        <v>0.002460845040463512</v>
+        <v>8.901113260509447E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.986094666666667</v>
+        <v>0.9818413333333332</v>
       </c>
       <c r="H3">
-        <v>5.958284</v>
+        <v>2.945524</v>
       </c>
       <c r="I3">
-        <v>0.1054404613987739</v>
+        <v>0.0542081715590086</v>
       </c>
       <c r="J3">
-        <v>0.1054404613987739</v>
+        <v>0.05420817155900861</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.049608666666667</v>
+        <v>2.049608666666666</v>
       </c>
       <c r="N3">
-        <v>6.148826000000001</v>
+        <v>6.148826</v>
       </c>
       <c r="O3">
-        <v>0.9573046246952972</v>
+        <v>0.9069818039462568</v>
       </c>
       <c r="P3">
-        <v>0.9573046246952972</v>
+        <v>0.9069818039462569</v>
       </c>
       <c r="Q3">
-        <v>4.070716841620444</v>
+        <v>2.012390506091555</v>
       </c>
       <c r="R3">
-        <v>36.636451574584</v>
+        <v>18.111514554824</v>
       </c>
       <c r="S3">
-        <v>0.1009386413270522</v>
+        <v>0.04916582522921779</v>
       </c>
       <c r="T3">
-        <v>0.1009386413270522</v>
+        <v>0.04916582522921781</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,46 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.986094666666667</v>
+        <v>0.9818413333333332</v>
       </c>
       <c r="H4">
-        <v>5.958284</v>
+        <v>2.945524</v>
       </c>
       <c r="I4">
-        <v>0.1054404613987739</v>
+        <v>0.0542081715590086</v>
       </c>
       <c r="J4">
-        <v>0.1054404613987739</v>
+        <v>0.05420817155900861</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.041443</v>
+        <v>0.206493</v>
       </c>
       <c r="N4">
-        <v>0.124329</v>
+        <v>0.619479</v>
       </c>
       <c r="O4">
-        <v>0.01935665876441155</v>
+        <v>0.09137617179715662</v>
       </c>
       <c r="P4">
-        <v>0.01935665876441155</v>
+        <v>0.09137617179715661</v>
       </c>
       <c r="Q4">
-        <v>0.08230972127066666</v>
+        <v>0.202743362444</v>
       </c>
       <c r="R4">
-        <v>0.740787491436</v>
+        <v>1.824690261996</v>
       </c>
       <c r="S4">
-        <v>0.002040975031258175</v>
+        <v>0.00495333519718571</v>
       </c>
       <c r="T4">
-        <v>0.002040975031258175</v>
+        <v>0.004953335197185709</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.968050000000002</v>
+        <v>9.968049999999998</v>
       </c>
       <c r="H5">
-        <v>29.90415</v>
+        <v>29.90414999999999</v>
       </c>
       <c r="I5">
-        <v>0.5291972275470834</v>
+        <v>0.5503432643992467</v>
       </c>
       <c r="J5">
-        <v>0.5291972275470833</v>
+        <v>0.5503432643992469</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,28 +738,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.04996866666666666</v>
+        <v>0.003710666666666666</v>
       </c>
       <c r="N5">
-        <v>0.149906</v>
+        <v>0.011132</v>
       </c>
       <c r="O5">
-        <v>0.0233387165402913</v>
+        <v>0.001642024256586498</v>
       </c>
       <c r="P5">
-        <v>0.0233387165402913</v>
+        <v>0.001642024256586498</v>
       </c>
       <c r="Q5">
-        <v>0.4980901677666667</v>
+        <v>0.03698811086666666</v>
       </c>
       <c r="R5">
-        <v>4.4828115099</v>
+        <v>0.3328929977999999</v>
       </c>
       <c r="S5">
-        <v>0.01235078408762941</v>
+        <v>0.0009036769895925599</v>
       </c>
       <c r="T5">
-        <v>0.01235078408762941</v>
+        <v>0.00090367698959256</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.968050000000002</v>
+        <v>9.968049999999998</v>
       </c>
       <c r="H6">
-        <v>29.90415</v>
+        <v>29.90414999999999</v>
       </c>
       <c r="I6">
-        <v>0.5291972275470834</v>
+        <v>0.5503432643992467</v>
       </c>
       <c r="J6">
-        <v>0.5291972275470833</v>
+        <v>0.5503432643992469</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.049608666666667</v>
+        <v>2.049608666666666</v>
       </c>
       <c r="N6">
-        <v>6.148826000000001</v>
+        <v>6.148826</v>
       </c>
       <c r="O6">
-        <v>0.9573046246952972</v>
+        <v>0.9069818039462568</v>
       </c>
       <c r="P6">
-        <v>0.9573046246952972</v>
+        <v>0.9069818039462569</v>
       </c>
       <c r="Q6">
-        <v>20.43060166976667</v>
+        <v>20.43060166976666</v>
       </c>
       <c r="R6">
-        <v>183.8754150279001</v>
+        <v>183.8754150278999</v>
       </c>
       <c r="S6">
-        <v>0.5066029533067525</v>
+        <v>0.4991513267345006</v>
       </c>
       <c r="T6">
-        <v>0.5066029533067524</v>
+        <v>0.4991513267345007</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,46 +844,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.968050000000002</v>
+        <v>9.968049999999998</v>
       </c>
       <c r="H7">
-        <v>29.90415</v>
+        <v>29.90414999999999</v>
       </c>
       <c r="I7">
-        <v>0.5291972275470834</v>
+        <v>0.5503432643992467</v>
       </c>
       <c r="J7">
-        <v>0.5291972275470833</v>
+        <v>0.5503432643992469</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.041443</v>
+        <v>0.206493</v>
       </c>
       <c r="N7">
-        <v>0.124329</v>
+        <v>0.619479</v>
       </c>
       <c r="O7">
-        <v>0.01935665876441155</v>
+        <v>0.09137617179715662</v>
       </c>
       <c r="P7">
-        <v>0.01935665876441155</v>
+        <v>0.09137617179715661</v>
       </c>
       <c r="Q7">
-        <v>0.4131058961500001</v>
+        <v>2.05833254865</v>
       </c>
       <c r="R7">
-        <v>3.717953065350001</v>
+        <v>18.52499293785</v>
       </c>
       <c r="S7">
-        <v>0.01024349015270154</v>
+        <v>0.05028826067515356</v>
       </c>
       <c r="T7">
-        <v>0.01024349015270154</v>
+        <v>0.05028826067515357</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.882027333333333</v>
+        <v>7.162531666666666</v>
       </c>
       <c r="H8">
-        <v>20.646082</v>
+        <v>21.487595</v>
       </c>
       <c r="I8">
-        <v>0.3653623110541427</v>
+        <v>0.3954485640417445</v>
       </c>
       <c r="J8">
-        <v>0.3653623110541426</v>
+        <v>0.3954485640417446</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -924,28 +924,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.04996866666666666</v>
+        <v>0.003710666666666666</v>
       </c>
       <c r="N8">
-        <v>0.149906</v>
+        <v>0.011132</v>
       </c>
       <c r="O8">
-        <v>0.0233387165402913</v>
+        <v>0.001642024256586498</v>
       </c>
       <c r="P8">
-        <v>0.0233387165402913</v>
+        <v>0.001642024256586498</v>
       </c>
       <c r="Q8">
-        <v>0.3438857298102222</v>
+        <v>0.02657776750444444</v>
       </c>
       <c r="R8">
-        <v>3.094971568292</v>
+        <v>0.23919990754</v>
       </c>
       <c r="S8">
-        <v>0.008527087412198375</v>
+        <v>0.0006493361343888438</v>
       </c>
       <c r="T8">
-        <v>0.008527087412198374</v>
+        <v>0.0006493361343888438</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.882027333333333</v>
+        <v>7.162531666666666</v>
       </c>
       <c r="H9">
-        <v>20.646082</v>
+        <v>21.487595</v>
       </c>
       <c r="I9">
-        <v>0.3653623110541427</v>
+        <v>0.3954485640417445</v>
       </c>
       <c r="J9">
-        <v>0.3653623110541426</v>
+        <v>0.3954485640417446</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.049608666666667</v>
+        <v>2.049608666666666</v>
       </c>
       <c r="N9">
-        <v>6.148826000000001</v>
+        <v>6.148826</v>
       </c>
       <c r="O9">
-        <v>0.9573046246952972</v>
+        <v>0.9069818039462568</v>
       </c>
       <c r="P9">
-        <v>0.9573046246952972</v>
+        <v>0.9069818039462569</v>
       </c>
       <c r="Q9">
-        <v>14.10546286663689</v>
+        <v>14.68038697927444</v>
       </c>
       <c r="R9">
-        <v>126.949165799732</v>
+        <v>132.12348281347</v>
       </c>
       <c r="S9">
-        <v>0.3497630300614925</v>
+        <v>0.3586646519825383</v>
       </c>
       <c r="T9">
-        <v>0.3497630300614925</v>
+        <v>0.3586646519825384</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,46 +1030,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.882027333333333</v>
+        <v>7.162531666666666</v>
       </c>
       <c r="H10">
-        <v>20.646082</v>
+        <v>21.487595</v>
       </c>
       <c r="I10">
-        <v>0.3653623110541427</v>
+        <v>0.3954485640417445</v>
       </c>
       <c r="J10">
-        <v>0.3653623110541426</v>
+        <v>0.3954485640417446</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.041443</v>
+        <v>0.206493</v>
       </c>
       <c r="N10">
-        <v>0.124329</v>
+        <v>0.619479</v>
       </c>
       <c r="O10">
-        <v>0.01935665876441155</v>
+        <v>0.09137617179715662</v>
       </c>
       <c r="P10">
-        <v>0.01935665876441155</v>
+        <v>0.09137617179715661</v>
       </c>
       <c r="Q10">
-        <v>0.2852118587753333</v>
+        <v>1.479012651445</v>
       </c>
       <c r="R10">
-        <v>2.566906728978</v>
+        <v>13.311113863005</v>
       </c>
       <c r="S10">
-        <v>0.007072193580451829</v>
+        <v>0.03613457592481734</v>
       </c>
       <c r="T10">
-        <v>0.007072193580451827</v>
+        <v>0.03613457592481734</v>
       </c>
     </row>
   </sheetData>
